--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Kremen1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H2">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.94752875367512</v>
+        <v>5.162356</v>
       </c>
       <c r="N2">
-        <v>4.94752875367512</v>
+        <v>15.487068</v>
       </c>
       <c r="O2">
-        <v>0.1609864769673399</v>
+        <v>0.1473254357974656</v>
       </c>
       <c r="P2">
-        <v>0.1609864769673399</v>
+        <v>0.1473254357974656</v>
       </c>
       <c r="Q2">
-        <v>20.66653784240124</v>
+        <v>1.222767687657333</v>
       </c>
       <c r="R2">
-        <v>20.66653784240124</v>
+        <v>11.004909188916</v>
       </c>
       <c r="S2">
-        <v>0.1609864769673399</v>
+        <v>0.007637344438761537</v>
       </c>
       <c r="T2">
-        <v>0.1609864769673399</v>
+        <v>0.007637344438761538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H3">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1656142233848</v>
+        <v>11.32077433333333</v>
       </c>
       <c r="N3">
-        <v>11.1656142233848</v>
+        <v>33.962323</v>
       </c>
       <c r="O3">
-        <v>0.3633153007274415</v>
+        <v>0.3230769075637357</v>
       </c>
       <c r="P3">
-        <v>0.3633153007274415</v>
+        <v>0.3230769075637357</v>
       </c>
       <c r="Q3">
-        <v>46.64037348137221</v>
+        <v>2.681465023733444</v>
       </c>
       <c r="R3">
-        <v>46.64037348137221</v>
+        <v>24.133185213601</v>
       </c>
       <c r="S3">
-        <v>0.3633153007274415</v>
+        <v>0.01674829339494558</v>
       </c>
       <c r="T3">
-        <v>0.3633153007274415</v>
+        <v>0.01674829339494558</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H4">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.32717555129306</v>
+        <v>2.340224333333333</v>
       </c>
       <c r="N4">
-        <v>2.32717555129306</v>
+        <v>7.020673</v>
       </c>
       <c r="O4">
-        <v>0.07572341909259327</v>
+        <v>0.06678628319553452</v>
       </c>
       <c r="P4">
-        <v>0.07572341909259327</v>
+        <v>0.06678628319553451</v>
       </c>
       <c r="Q4">
-        <v>9.720946353466539</v>
+        <v>0.5543109961167778</v>
       </c>
       <c r="R4">
-        <v>9.720946353466539</v>
+        <v>4.988798965051</v>
       </c>
       <c r="S4">
-        <v>0.07572341909259327</v>
+        <v>0.003462198131558103</v>
       </c>
       <c r="T4">
-        <v>0.07572341909259327</v>
+        <v>0.003462198131558103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H5">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.6422576667386</v>
+        <v>2.643895666666667</v>
       </c>
       <c r="N5">
-        <v>2.6422576667386</v>
+        <v>7.931687</v>
       </c>
       <c r="O5">
-        <v>0.08597580209962793</v>
+        <v>0.07545258042930351</v>
       </c>
       <c r="P5">
-        <v>0.08597580209962793</v>
+        <v>0.0754525804293035</v>
       </c>
       <c r="Q5">
-        <v>11.03708958102881</v>
+        <v>0.6262392966965555</v>
       </c>
       <c r="R5">
-        <v>11.03708958102881</v>
+        <v>5.636153670269</v>
       </c>
       <c r="S5">
-        <v>0.08597580209962793</v>
+        <v>0.003911458618212769</v>
       </c>
       <c r="T5">
-        <v>0.08597580209962793</v>
+        <v>0.003911458618212769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2368623333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.710587</v>
+      </c>
+      <c r="I6">
+        <v>0.05183995823545984</v>
+      </c>
+      <c r="J6">
+        <v>0.05183995823545985</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>13.57324333333333</v>
+      </c>
+      <c r="N6">
+        <v>40.71973</v>
+      </c>
+      <c r="O6">
+        <v>0.3873587930139607</v>
+      </c>
+      <c r="P6">
+        <v>0.3873587930139606</v>
+      </c>
+      <c r="Q6">
+        <v>3.214990086834444</v>
+      </c>
+      <c r="R6">
+        <v>28.93491078151</v>
+      </c>
+      <c r="S6">
+        <v>0.02008066365198186</v>
+      </c>
+      <c r="T6">
+        <v>0.02008066365198186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H7">
+        <v>12.702779</v>
+      </c>
+      <c r="I7">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J7">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.162356</v>
+      </c>
+      <c r="N7">
+        <v>15.487068</v>
+      </c>
+      <c r="O7">
+        <v>0.1473254357974656</v>
+      </c>
+      <c r="P7">
+        <v>0.1473254357974656</v>
+      </c>
+      <c r="Q7">
+        <v>21.85875579577467</v>
+      </c>
+      <c r="R7">
+        <v>196.728802161972</v>
+      </c>
+      <c r="S7">
+        <v>0.1365286707362601</v>
+      </c>
+      <c r="T7">
+        <v>0.1365286707362601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H8">
+        <v>12.702779</v>
+      </c>
+      <c r="I8">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J8">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.32077433333333</v>
+      </c>
+      <c r="N8">
+        <v>33.962323</v>
+      </c>
+      <c r="O8">
+        <v>0.3230769075637357</v>
+      </c>
+      <c r="P8">
+        <v>0.3230769075637357</v>
+      </c>
+      <c r="Q8">
+        <v>47.93509815506855</v>
+      </c>
+      <c r="R8">
+        <v>431.415883395617</v>
+      </c>
+      <c r="S8">
+        <v>0.2994001714401663</v>
+      </c>
+      <c r="T8">
+        <v>0.2994001714401663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H9">
+        <v>12.702779</v>
+      </c>
+      <c r="I9">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J9">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.340224333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.020673</v>
+      </c>
+      <c r="O9">
+        <v>0.06678628319553452</v>
+      </c>
+      <c r="P9">
+        <v>0.06678628319553451</v>
+      </c>
+      <c r="Q9">
+        <v>9.909117505585222</v>
+      </c>
+      <c r="R9">
+        <v>89.182057550267</v>
+      </c>
+      <c r="S9">
+        <v>0.06189184113893937</v>
+      </c>
+      <c r="T9">
+        <v>0.06189184113893936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H10">
+        <v>12.702779</v>
+      </c>
+      <c r="I10">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J10">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.643895666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.931687</v>
+      </c>
+      <c r="O10">
+        <v>0.07545258042930351</v>
+      </c>
+      <c r="P10">
+        <v>0.0754525804293035</v>
+      </c>
+      <c r="Q10">
+        <v>11.19494078424144</v>
+      </c>
+      <c r="R10">
+        <v>100.754467058173</v>
+      </c>
+      <c r="S10">
+        <v>0.06992302757410729</v>
+      </c>
+      <c r="T10">
+        <v>0.06992302757410729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H11">
+        <v>12.702779</v>
+      </c>
+      <c r="I11">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J11">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.57324333333333</v>
+      </c>
+      <c r="N11">
+        <v>40.71973</v>
+      </c>
+      <c r="O11">
+        <v>0.3873587930139607</v>
+      </c>
+      <c r="P11">
+        <v>0.3873587930139606</v>
+      </c>
+      <c r="Q11">
+        <v>57.47263679218555</v>
+      </c>
+      <c r="R11">
+        <v>517.25373112967</v>
+      </c>
+      <c r="S11">
+        <v>0.3589711499710218</v>
+      </c>
+      <c r="T11">
+        <v>0.3589711499710218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.213922</v>
+      </c>
+      <c r="I12">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J12">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.162356</v>
+      </c>
+      <c r="N12">
+        <v>15.487068</v>
+      </c>
+      <c r="O12">
+        <v>0.1473254357974656</v>
+      </c>
+      <c r="P12">
+        <v>0.1473254357974656</v>
+      </c>
+      <c r="Q12">
+        <v>0.3681138400773333</v>
+      </c>
+      <c r="R12">
+        <v>3.313024560696</v>
+      </c>
+      <c r="S12">
+        <v>0.002299220217972952</v>
+      </c>
+      <c r="T12">
+        <v>0.002299220217972952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.213922</v>
+      </c>
+      <c r="I13">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J13">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.32077433333333</v>
+      </c>
+      <c r="N13">
+        <v>33.962323</v>
+      </c>
+      <c r="O13">
+        <v>0.3230769075637357</v>
+      </c>
+      <c r="P13">
+        <v>0.3230769075637357</v>
+      </c>
+      <c r="Q13">
+        <v>0.8072542289784443</v>
+      </c>
+      <c r="R13">
+        <v>7.265288060805999</v>
+      </c>
+      <c r="S13">
+        <v>0.005042068627252608</v>
+      </c>
+      <c r="T13">
+        <v>0.005042068627252608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.17714355415312</v>
-      </c>
-      <c r="H6">
-        <v>4.17714355415312</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>9.649997415292161</v>
-      </c>
-      <c r="N6">
-        <v>9.649997415292161</v>
-      </c>
-      <c r="O6">
-        <v>0.3139990011129975</v>
-      </c>
-      <c r="P6">
-        <v>0.3139990011129975</v>
-      </c>
-      <c r="Q6">
-        <v>40.30942450088192</v>
-      </c>
-      <c r="R6">
-        <v>40.30942450088192</v>
-      </c>
-      <c r="S6">
-        <v>0.3139990011129975</v>
-      </c>
-      <c r="T6">
-        <v>0.3139990011129975</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.213922</v>
+      </c>
+      <c r="I14">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J14">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.340224333333333</v>
+      </c>
+      <c r="N14">
+        <v>7.020673</v>
+      </c>
+      <c r="O14">
+        <v>0.06678628319553452</v>
+      </c>
+      <c r="P14">
+        <v>0.06678628319553451</v>
+      </c>
+      <c r="Q14">
+        <v>0.1668751566117778</v>
+      </c>
+      <c r="R14">
+        <v>1.501876409506</v>
+      </c>
+      <c r="S14">
+        <v>0.001042293693381912</v>
+      </c>
+      <c r="T14">
+        <v>0.001042293693381912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.213922</v>
+      </c>
+      <c r="I15">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J15">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.643895666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.931687</v>
+      </c>
+      <c r="O15">
+        <v>0.07545258042930351</v>
+      </c>
+      <c r="P15">
+        <v>0.0754525804293035</v>
+      </c>
+      <c r="Q15">
+        <v>0.1885291496015556</v>
+      </c>
+      <c r="R15">
+        <v>1.696762346414</v>
+      </c>
+      <c r="S15">
+        <v>0.001177543426104491</v>
+      </c>
+      <c r="T15">
+        <v>0.001177543426104491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.213922</v>
+      </c>
+      <c r="I16">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J16">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.57324333333333</v>
+      </c>
+      <c r="N16">
+        <v>40.71973</v>
+      </c>
+      <c r="O16">
+        <v>0.3873587930139607</v>
+      </c>
+      <c r="P16">
+        <v>0.3873587930139606</v>
+      </c>
+      <c r="Q16">
+        <v>0.9678717867844444</v>
+      </c>
+      <c r="R16">
+        <v>8.71084608106</v>
+      </c>
+      <c r="S16">
+        <v>0.006045277678537973</v>
+      </c>
+      <c r="T16">
+        <v>0.006045277678537974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.026678</v>
+      </c>
+      <c r="H17">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J17">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.162356</v>
+      </c>
+      <c r="N17">
+        <v>15.487068</v>
+      </c>
+      <c r="O17">
+        <v>0.1473254357974656</v>
+      </c>
+      <c r="P17">
+        <v>0.1473254357974656</v>
+      </c>
+      <c r="Q17">
+        <v>0.137721333368</v>
+      </c>
+      <c r="R17">
+        <v>1.239492000312</v>
+      </c>
+      <c r="S17">
+        <v>0.000860200404471009</v>
+      </c>
+      <c r="T17">
+        <v>0.0008602004044710091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.026678</v>
+      </c>
+      <c r="H18">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J18">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.32077433333333</v>
+      </c>
+      <c r="N18">
+        <v>33.962323</v>
+      </c>
+      <c r="O18">
+        <v>0.3230769075637357</v>
+      </c>
+      <c r="P18">
+        <v>0.3230769075637357</v>
+      </c>
+      <c r="Q18">
+        <v>0.3020156176646666</v>
+      </c>
+      <c r="R18">
+        <v>2.718140558982</v>
+      </c>
+      <c r="S18">
+        <v>0.001886374101371225</v>
+      </c>
+      <c r="T18">
+        <v>0.001886374101371225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.026678</v>
+      </c>
+      <c r="H19">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J19">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.340224333333333</v>
+      </c>
+      <c r="N19">
+        <v>7.020673</v>
+      </c>
+      <c r="O19">
+        <v>0.06678628319553452</v>
+      </c>
+      <c r="P19">
+        <v>0.06678628319553451</v>
+      </c>
+      <c r="Q19">
+        <v>0.06243250476466666</v>
+      </c>
+      <c r="R19">
+        <v>0.561892542882</v>
+      </c>
+      <c r="S19">
+        <v>0.0003899502316551263</v>
+      </c>
+      <c r="T19">
+        <v>0.0003899502316551263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.026678</v>
+      </c>
+      <c r="H20">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J20">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.643895666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.931687</v>
+      </c>
+      <c r="O20">
+        <v>0.07545258042930351</v>
+      </c>
+      <c r="P20">
+        <v>0.0754525804293035</v>
+      </c>
+      <c r="Q20">
+        <v>0.07053384859533333</v>
+      </c>
+      <c r="R20">
+        <v>0.634804637358</v>
+      </c>
+      <c r="S20">
+        <v>0.0004405508108789504</v>
+      </c>
+      <c r="T20">
+        <v>0.0004405508108789504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.026678</v>
+      </c>
+      <c r="H21">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J21">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.57324333333333</v>
+      </c>
+      <c r="N21">
+        <v>40.71973</v>
+      </c>
+      <c r="O21">
+        <v>0.3873587930139607</v>
+      </c>
+      <c r="P21">
+        <v>0.3873587930139606</v>
+      </c>
+      <c r="Q21">
+        <v>0.3621069856466666</v>
+      </c>
+      <c r="R21">
+        <v>3.25896287082</v>
+      </c>
+      <c r="S21">
+        <v>0.00226170171241905</v>
+      </c>
+      <c r="T21">
+        <v>0.00226170171241905</v>
       </c>
     </row>
   </sheetData>
